--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.50980332011156</v>
+        <v>9255.450860702245</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.50980332011156</v>
+        <v>9255.450860702245</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55070.54522918758</v>
+        <v>3852426.955997508</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55070.54522918758</v>
+        <v>3852426.955997508</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494912691.226762</v>
+        <v>57762190.60330816</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13640.33816224137</v>
+        <v>1329733.480155993</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26693.88303845896</v>
+        <v>2557673.372056031</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39747.19033891896</v>
+        <v>3785565.986380312</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55382.08725164333</v>
+        <v>4811800.582764877</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69796.91013035545</v>
+        <v>5965919.724083062</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84211.73300906757</v>
+        <v>7120038.865401242</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98628.00303570722</v>
+        <v>8274196.404377766</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113044.0801092899</v>
+        <v>9428315.545695946</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128680.2312168848</v>
+        <v>10454550.1420805</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143108.4990670178</v>
+        <v>11607549.71883913</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157523.32194573</v>
+        <v>12761668.86015731</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171938.1448244422</v>
+        <v>13915788.0014755</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186352.9677031543</v>
+        <v>15069907.14279369</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200781.4285063444</v>
+        <v>16222945.11721068</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218221.2928440661</v>
+        <v>17017783.56785688</v>
       </c>
     </row>
   </sheetData>
